--- a/inputs/super_input.xlsx
+++ b/inputs/super_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorprieto/Desktop/code/cornerstone/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC37BFB6-5CA6-4240-9C8D-12B90FA18D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DC10E9-E058-3B48-AC80-81D3943AC896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1577,7 +1577,7 @@
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1886,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1932,7 +1932,7 @@
         <v>8</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1955,7 +1955,7 @@
         <v>4</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1978,7 +1978,7 @@
         <v>6</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
